--- a/biology/Biochimie/Robine_(protéine)/Robine_(protéine).xlsx
+++ b/biology/Biochimie/Robine_(protéine)/Robine_(protéine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robine_(prot%C3%A9ine)</t>
+          <t>Robine_(protéine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La robine est une toxalbumine (protéine toxique) et une lectine[1]. On trouve cette toxine dans le bois, les racines, l'écorce et les graines du robinier (par exemple Robinia pseudoacacia)[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La robine est une toxalbumine (protéine toxique) et une lectine. On trouve cette toxine dans le bois, les racines, l'écorce et les graines du robinier (par exemple Robinia pseudoacacia). 
 Tout comme la ricine et l'abrine, cette toxine appartient à la famille des protéines inactivant les ribosomes (RIP).
-La robine peut avoir une action fatale ou entraîner une nécrose[3].
+La robine peut avoir une action fatale ou entraîner une nécrose.
 </t>
         </is>
       </c>
